--- a/data/SDG10.xlsx
+++ b/data/SDG10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bajk/Documents/GitHub/zhaw-sustainability/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739B1E56-EFBC-D044-AECD-F615EEC5F253}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B65E1E-FF81-F54F-B8DA-04BC793AE74A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2600" windowWidth="27240" windowHeight="16360" activeTab="3" xr2:uid="{7029EB61-B504-E84E-8505-29FFF0CA2E32}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="600">
   <si>
     <t>keyword</t>
   </si>
@@ -1624,6 +1624,219 @@
   </si>
   <si>
     <t>fr_lem</t>
+  </si>
+  <si>
+    <t>discrimination fondée sur l'âge</t>
+  </si>
+  <si>
+    <t>l'âgisme</t>
+  </si>
+  <si>
+    <t>ageiste</t>
+  </si>
+  <si>
+    <t>surveillance d'agence</t>
+  </si>
+  <si>
+    <t>réglementation de l'agence</t>
+  </si>
+  <si>
+    <t>surveillance bancaire</t>
+  </si>
+  <si>
+    <t>handicap cognitif</t>
+  </si>
+  <si>
+    <t>participation communautaire</t>
+  </si>
+  <si>
+    <t>aide au développement</t>
+  </si>
+  <si>
+    <t>troubles du développement</t>
+  </si>
+  <si>
+    <t>traitement différencié pour les pays en développement</t>
+  </si>
+  <si>
+    <t>inclusion numérique</t>
+  </si>
+  <si>
+    <t>invalidité</t>
+  </si>
+  <si>
+    <t>la discrimination</t>
+  </si>
+  <si>
+    <t>croissance économique</t>
+  </si>
+  <si>
+    <t>inclusion économique</t>
+  </si>
+  <si>
+    <t>inclusion éducative</t>
+  </si>
+  <si>
+    <t>émigration</t>
+  </si>
+  <si>
+    <t>égal</t>
+  </si>
+  <si>
+    <t>discrimination ethnique</t>
+  </si>
+  <si>
+    <t>discrimination quotidienne</t>
+  </si>
+  <si>
+    <t>exclusif</t>
+  </si>
+  <si>
+    <t>justice</t>
+  </si>
+  <si>
+    <t>règlement financier</t>
+  </si>
+  <si>
+    <t>le sexisme</t>
+  </si>
+  <si>
+    <t>égalité des sexes</t>
+  </si>
+  <si>
+    <t>revenu du ménage</t>
+  </si>
+  <si>
+    <t>compris</t>
+  </si>
+  <si>
+    <t>Éducation inclusive</t>
+  </si>
+  <si>
+    <t>la répartition des revenus</t>
+  </si>
+  <si>
+    <t>croissance des revenus</t>
+  </si>
+  <si>
+    <t>surveillance institutionnelle</t>
+  </si>
+  <si>
+    <t>réglementation institutionnelle</t>
+  </si>
+  <si>
+    <t>Déficience intellectuelle</t>
+  </si>
+  <si>
+    <t>droit de l'homme international</t>
+  </si>
+  <si>
+    <t>migration de main-d'œuvre</t>
+  </si>
+  <si>
+    <t>trouble d'apprentissage</t>
+  </si>
+  <si>
+    <t>suivi des prêts</t>
+  </si>
+  <si>
+    <t>régulation du marché</t>
+  </si>
+  <si>
+    <t>maladie mentale</t>
+  </si>
+  <si>
+    <t>envoi de fonds des migrants</t>
+  </si>
+  <si>
+    <t>flux de migration</t>
+  </si>
+  <si>
+    <t>politique migratoire</t>
+  </si>
+  <si>
+    <t>maltraitance</t>
+  </si>
+  <si>
+    <t>vieillesse</t>
+  </si>
+  <si>
+    <t>occasion</t>
+  </si>
+  <si>
+    <t>surveillance de l'organisation</t>
+  </si>
+  <si>
+    <t>règlement d'organisation</t>
+  </si>
+  <si>
+    <t>personnes vivant sous le revenu médian</t>
+  </si>
+  <si>
+    <t>discrimination perçue</t>
+  </si>
+  <si>
+    <t>inclusion politique</t>
+  </si>
+  <si>
+    <t>croissance démographique</t>
+  </si>
+  <si>
+    <t>réduction de la pauvreté</t>
+  </si>
+  <si>
+    <t>handicap psychiatrique</t>
+  </si>
+  <si>
+    <t>discrimination raciale</t>
+  </si>
+  <si>
+    <t>réduire les inégalités</t>
+  </si>
+  <si>
+    <t>couloir de remise</t>
+  </si>
+  <si>
+    <t>migration de retour</t>
+  </si>
+  <si>
+    <t>invalidité grave</t>
+  </si>
+  <si>
+    <t>handicap important</t>
+  </si>
+  <si>
+    <t>intégration sociale</t>
+  </si>
+  <si>
+    <t>protection sociale</t>
+  </si>
+  <si>
+    <t>bien-être social</t>
+  </si>
+  <si>
+    <t>besoins spéciaux</t>
+  </si>
+  <si>
+    <t>menace de stéréotype</t>
+  </si>
+  <si>
+    <t>stigmate</t>
+  </si>
+  <si>
+    <t>surveillance universitaire</t>
+  </si>
+  <si>
+    <t>réglementation universitaire</t>
+  </si>
+  <si>
+    <t>déficience visuelle</t>
+  </si>
+  <si>
+    <t>état vulnérable</t>
+  </si>
+  <si>
+    <t>discrimination au travail</t>
   </si>
 </sst>
 </file>
@@ -5051,8 +5264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFE2802-3BE3-6346-B43E-219FCE45207B}">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="B99" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5088,7 +5301,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
@@ -5103,7 +5316,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>529</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>10</v>
@@ -5118,7 +5331,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>530</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>11</v>
@@ -5133,7 +5346,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>531</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
@@ -5148,7 +5361,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>532</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
@@ -5163,7 +5376,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>533</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>23</v>
@@ -5178,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>534</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>28</v>
@@ -5193,7 +5406,7 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>32</v>
@@ -5208,7 +5421,7 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>535</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>37</v>
@@ -5223,7 +5436,7 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>536</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>43</v>
@@ -5238,7 +5451,7 @@
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>537</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>48</v>
@@ -5253,7 +5466,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>538</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>53</v>
@@ -5268,7 +5481,7 @@
         <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>539</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>59</v>
@@ -5283,7 +5496,7 @@
         <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>540</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>63</v>
@@ -5298,7 +5511,7 @@
         <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>541</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>68</v>
@@ -5313,7 +5526,7 @@
         <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>542</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>69</v>
@@ -5328,7 +5541,7 @@
         <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>76</v>
@@ -5343,7 +5556,7 @@
         <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>81</v>
@@ -5358,7 +5571,7 @@
         <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>543</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>85</v>
@@ -5373,7 +5586,7 @@
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>544</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>90</v>
@@ -5388,7 +5601,7 @@
         <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>545</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>95</v>
@@ -5403,7 +5616,7 @@
         <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>546</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>99</v>
@@ -5418,7 +5631,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>547</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>100</v>
@@ -5433,7 +5646,7 @@
         <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>110</v>
@@ -5448,7 +5661,7 @@
         <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>114</v>
@@ -5463,7 +5676,7 @@
         <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>548</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>118</v>
@@ -5478,7 +5691,7 @@
         <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>549</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>123</v>
@@ -5493,7 +5706,7 @@
         <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>550</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>129</v>
@@ -5508,7 +5721,7 @@
         <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>551</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>114</v>
@@ -5523,7 +5736,7 @@
         <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>136</v>
@@ -5538,7 +5751,7 @@
         <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>141</v>
@@ -5553,7 +5766,7 @@
         <v>147</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>147</v>
@@ -5568,7 +5781,7 @@
         <v>151</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>151</v>
@@ -5583,7 +5796,7 @@
         <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>552</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>157</v>
@@ -5598,7 +5811,7 @@
         <v>161</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>161</v>
@@ -5613,7 +5826,7 @@
         <v>165</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>165</v>
@@ -5628,7 +5841,7 @@
         <v>170</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>553</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>170</v>
@@ -5643,7 +5856,7 @@
         <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>554</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>176</v>
@@ -5658,7 +5871,7 @@
         <v>181</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>555</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>181</v>
@@ -5673,7 +5886,7 @@
         <v>182</v>
       </c>
       <c r="C41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>182</v>
@@ -5688,7 +5901,7 @@
         <v>186</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>186</v>
@@ -5703,7 +5916,7 @@
         <v>197</v>
       </c>
       <c r="C43" t="s">
-        <v>196</v>
+        <v>556</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>197</v>
@@ -5718,7 +5931,7 @@
         <v>202</v>
       </c>
       <c r="C44" t="s">
-        <v>201</v>
+        <v>557</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>202</v>
@@ -5733,7 +5946,7 @@
         <v>206</v>
       </c>
       <c r="C45" t="s">
-        <v>205</v>
+        <v>558</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>206</v>
@@ -5748,7 +5961,7 @@
         <v>210</v>
       </c>
       <c r="C46" t="s">
-        <v>209</v>
+        <v>559</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>210</v>
@@ -5763,7 +5976,7 @@
         <v>215</v>
       </c>
       <c r="C47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>215</v>
@@ -5778,7 +5991,7 @@
         <v>216</v>
       </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>216</v>
@@ -5793,7 +6006,7 @@
         <v>224</v>
       </c>
       <c r="C49" t="s">
-        <v>223</v>
+        <v>560</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>224</v>
@@ -5808,7 +6021,7 @@
         <v>229</v>
       </c>
       <c r="C50" t="s">
-        <v>228</v>
+        <v>561</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>229</v>
@@ -5823,7 +6036,7 @@
         <v>234</v>
       </c>
       <c r="C51" t="s">
-        <v>233</v>
+        <v>562</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>234</v>
@@ -5838,7 +6051,7 @@
         <v>239</v>
       </c>
       <c r="C52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>239</v>
@@ -5853,7 +6066,7 @@
         <v>243</v>
       </c>
       <c r="C53" t="s">
-        <v>242</v>
+        <v>563</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>243</v>
@@ -5868,7 +6081,7 @@
         <v>247</v>
       </c>
       <c r="C54" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>247</v>
@@ -5883,7 +6096,7 @@
         <v>251</v>
       </c>
       <c r="C55" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>251</v>
@@ -5898,7 +6111,7 @@
         <v>255</v>
       </c>
       <c r="C56" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>255</v>
@@ -5913,7 +6126,7 @@
         <v>260</v>
       </c>
       <c r="C57" t="s">
-        <v>259</v>
+        <v>564</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>260</v>
@@ -5928,7 +6141,7 @@
         <v>266</v>
       </c>
       <c r="C58" t="s">
-        <v>265</v>
+        <v>565</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>266</v>
@@ -5943,7 +6156,7 @@
         <v>271</v>
       </c>
       <c r="C59" t="s">
-        <v>270</v>
+        <v>566</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>271</v>
@@ -5958,7 +6171,7 @@
         <v>277</v>
       </c>
       <c r="C60" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>277</v>
@@ -5973,7 +6186,7 @@
         <v>281</v>
       </c>
       <c r="C61" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>281</v>
@@ -5988,7 +6201,7 @@
         <v>286</v>
       </c>
       <c r="C62" t="s">
-        <v>285</v>
+        <v>567</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>286</v>
@@ -6003,7 +6216,7 @@
         <v>290</v>
       </c>
       <c r="C63" t="s">
-        <v>289</v>
+        <v>568</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>290</v>
@@ -6018,7 +6231,7 @@
         <v>294</v>
       </c>
       <c r="C64" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>294</v>
@@ -6033,7 +6246,7 @@
         <v>299</v>
       </c>
       <c r="C65" t="s">
-        <v>298</v>
+        <v>569</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>299</v>
@@ -6048,7 +6261,7 @@
         <v>300</v>
       </c>
       <c r="C66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>300</v>
@@ -6063,7 +6276,7 @@
         <v>307</v>
       </c>
       <c r="C67" t="s">
-        <v>306</v>
+        <v>570</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>307</v>
@@ -6078,7 +6291,7 @@
         <v>313</v>
       </c>
       <c r="C68" t="s">
-        <v>312</v>
+        <v>571</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>313</v>
@@ -6093,7 +6306,7 @@
         <v>317</v>
       </c>
       <c r="C69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>317</v>
@@ -6108,7 +6321,7 @@
         <v>322</v>
       </c>
       <c r="C70" t="s">
-        <v>321</v>
+        <v>572</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>322</v>
@@ -6123,7 +6336,7 @@
         <v>327</v>
       </c>
       <c r="C71" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>327</v>
@@ -6138,7 +6351,7 @@
         <v>328</v>
       </c>
       <c r="C72" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>328</v>
@@ -6153,7 +6366,7 @@
         <v>336</v>
       </c>
       <c r="C73" t="s">
-        <v>335</v>
+        <v>573</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>336</v>
@@ -6168,7 +6381,7 @@
         <v>341</v>
       </c>
       <c r="C74" t="s">
-        <v>340</v>
+        <v>574</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>341</v>
@@ -6183,7 +6396,7 @@
         <v>345</v>
       </c>
       <c r="C75" t="s">
-        <v>344</v>
+        <v>575</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>345</v>
@@ -6198,7 +6411,7 @@
         <v>350</v>
       </c>
       <c r="C76" t="s">
-        <v>349</v>
+        <v>576</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>350</v>
@@ -6213,7 +6426,7 @@
         <v>351</v>
       </c>
       <c r="C77" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>351</v>
@@ -6228,7 +6441,7 @@
         <v>359</v>
       </c>
       <c r="C78" t="s">
-        <v>358</v>
+        <v>577</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>359</v>
@@ -6243,7 +6456,7 @@
         <v>363</v>
       </c>
       <c r="C79" t="s">
-        <v>362</v>
+        <v>578</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>363</v>
@@ -6258,7 +6471,7 @@
         <v>368</v>
       </c>
       <c r="C80" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>368</v>
@@ -6273,7 +6486,7 @@
         <v>372</v>
       </c>
       <c r="C81" t="s">
-        <v>371</v>
+        <v>579</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>372</v>
@@ -6288,7 +6501,7 @@
         <v>377</v>
       </c>
       <c r="C82" t="s">
-        <v>376</v>
+        <v>580</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>377</v>
@@ -6303,7 +6516,7 @@
         <v>381</v>
       </c>
       <c r="C83" t="s">
-        <v>380</v>
+        <v>581</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>381</v>
@@ -6318,7 +6531,7 @@
         <v>387</v>
       </c>
       <c r="C84" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>387</v>
@@ -6333,7 +6546,7 @@
         <v>391</v>
       </c>
       <c r="C85" t="s">
-        <v>390</v>
+        <v>582</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>391</v>
@@ -6348,7 +6561,7 @@
         <v>396</v>
       </c>
       <c r="C86" t="s">
-        <v>395</v>
+        <v>583</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>396</v>
@@ -6363,7 +6576,7 @@
         <v>400</v>
       </c>
       <c r="C87" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>400</v>
@@ -6378,7 +6591,7 @@
         <v>405</v>
       </c>
       <c r="C88" t="s">
-        <v>404</v>
+        <v>584</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>405</v>
@@ -6393,7 +6606,7 @@
         <v>410</v>
       </c>
       <c r="C89" t="s">
-        <v>409</v>
+        <v>585</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>410</v>
@@ -6408,7 +6621,7 @@
         <v>415</v>
       </c>
       <c r="C90" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>415</v>
@@ -6423,7 +6636,7 @@
         <v>419</v>
       </c>
       <c r="C91" t="s">
-        <v>418</v>
+        <v>586</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>419</v>
@@ -6438,7 +6651,7 @@
         <v>424</v>
       </c>
       <c r="C92" t="s">
-        <v>423</v>
+        <v>587</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>424</v>
@@ -6453,7 +6666,7 @@
         <v>428</v>
       </c>
       <c r="C93" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>428</v>
@@ -6468,7 +6681,7 @@
         <v>432</v>
       </c>
       <c r="C94" t="s">
-        <v>431</v>
+        <v>588</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>432</v>
@@ -6483,7 +6696,7 @@
         <v>438</v>
       </c>
       <c r="C95" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>438</v>
@@ -6498,7 +6711,7 @@
         <v>441</v>
       </c>
       <c r="C96" t="s">
-        <v>437</v>
+        <v>589</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>441</v>
@@ -6513,7 +6726,7 @@
         <v>446</v>
       </c>
       <c r="C97" t="s">
-        <v>445</v>
+        <v>590</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>446</v>
@@ -6528,7 +6741,7 @@
         <v>452</v>
       </c>
       <c r="C98" t="s">
-        <v>451</v>
+        <v>591</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>452</v>
@@ -6543,7 +6756,7 @@
         <v>457</v>
       </c>
       <c r="C99" t="s">
-        <v>456</v>
+        <v>592</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>457</v>
@@ -6558,7 +6771,7 @@
         <v>462</v>
       </c>
       <c r="C100" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>462</v>
@@ -6573,7 +6786,7 @@
         <v>468</v>
       </c>
       <c r="C101" t="s">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>468</v>
@@ -6588,7 +6801,7 @@
         <v>471</v>
       </c>
       <c r="C102" t="s">
-        <v>469</v>
+        <v>594</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>471</v>
@@ -6603,7 +6816,7 @@
         <v>476</v>
       </c>
       <c r="C103" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>476</v>
@@ -6618,7 +6831,7 @@
         <v>482</v>
       </c>
       <c r="C104" t="s">
-        <v>481</v>
+        <v>595</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>482</v>
@@ -6633,7 +6846,7 @@
         <v>487</v>
       </c>
       <c r="C105" t="s">
-        <v>486</v>
+        <v>596</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>487</v>
@@ -6648,7 +6861,7 @@
         <v>492</v>
       </c>
       <c r="C106" t="s">
-        <v>491</v>
+        <v>597</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>492</v>
@@ -6663,7 +6876,7 @@
         <v>498</v>
       </c>
       <c r="C107" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>498</v>
@@ -6678,7 +6891,7 @@
         <v>502</v>
       </c>
       <c r="C108" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>502</v>
@@ -6693,7 +6906,7 @@
         <v>507</v>
       </c>
       <c r="C109" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>507</v>
@@ -6708,7 +6921,7 @@
         <v>512</v>
       </c>
       <c r="C110" t="s">
-        <v>511</v>
+        <v>598</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>512</v>
@@ -6723,7 +6936,7 @@
         <v>516</v>
       </c>
       <c r="C111" t="s">
-        <v>515</v>
+        <v>599</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>516</v>
@@ -6739,7 +6952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8B45AF-7727-814D-B12A-836DD0951BED}">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
